--- a/MainTop/04.02.2026 Таня ВБ/к1 04.02.2026 Таня ВБ.xlsx
+++ b/MainTop/04.02.2026 Таня ВБ/к1 04.02.2026 Таня ВБ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\04.02.2026 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\04.02.2026 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E994AA-AD42-4DDB-B0AC-50A208163340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387DB84-A4FB-451D-A310-A22337B37BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="144">
   <si>
     <t>OZN2474254579</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>OZN1522019568</t>
+  </si>
+  <si>
+    <t>штрихкод</t>
+  </si>
+  <si>
+    <t>Артикул</t>
   </si>
 </sst>
 </file>
@@ -768,1446 +774,1454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A287"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="N271" sqref="N271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
         <v>141</v>
       </c>
     </row>
